--- a/paper-case-studies/case-4/data/factor_r_calibrations.xlsx
+++ b/paper-case-studies/case-4/data/factor_r_calibrations.xlsx
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.03007924373640643</v>
+        <v>0.02731962387245397</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7326214480680929</v>
+        <v>0.7358754971980488</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1409730554678411</v>
+        <v>0.137803224385964</v>
       </c>
     </row>
   </sheetData>
